--- a/指标对比.xlsx
+++ b/指标对比.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\Kan\Documents\GitHub\ta_cn\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE059A0-6FCE-4F42-ACC2-C7F112066782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18517" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="对比" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>国外</t>
   </si>
@@ -54,9 +48,21 @@
     <t>MA</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>计算MA为第一个值，之后ewm(alpha=M/N).mean()</t>
+  </si>
+  <si>
     <t>EMA</t>
   </si>
   <si>
+    <t>计算MA为第一个值，之后ewm(span=N).mean()</t>
+  </si>
+  <si>
+    <t>Price做为第一个值，之后ewm(span=N).mean()</t>
+  </si>
+  <si>
     <t>WS_SUM不存在</t>
   </si>
   <si>
@@ -174,35 +180,45 @@
     <t>使用参数N</t>
   </si>
   <si>
-    <t>EMA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算MA为第一个值，之后ewm(alpha=M/N).mean()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算MA为第一个值，之后ewm(span=N).mean()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Price做为第一个值，之后ewm(span=N).mean()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>OBV</t>
+  </si>
+  <si>
+    <t>能量潮指标</t>
+  </si>
+  <si>
+    <t>部分软件会多除10000</t>
   </si>
   <si>
     <t>未完，待补充</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,40 +244,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -270,12 +591,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -283,8 +613,19 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -292,17 +633,43 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -312,7 +679,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -320,12 +687,23 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -334,68 +712,256 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -405,105 +971,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -790,77 +1415,77 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AC38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.265625" customWidth="1"/>
-    <col min="2" max="2" width="7.3984375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="47.3984375" customWidth="1"/>
-    <col min="4" max="4" width="9.53125" customWidth="1"/>
-    <col min="5" max="5" width="47.1328125" customWidth="1"/>
-    <col min="6" max="6" width="8.796875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="7.26548672566372" customWidth="1"/>
+    <col min="2" max="2" width="7.39823008849558" style="6" customWidth="1"/>
+    <col min="3" max="3" width="47.3982300884956" customWidth="1"/>
+    <col min="4" max="4" width="9.53097345132743" customWidth="1"/>
+    <col min="5" max="5" width="47.1327433628319" customWidth="1"/>
+    <col min="6" max="6" width="8.79646017699115" style="5" customWidth="1"/>
     <col min="7" max="8" width="9" style="5"/>
-    <col min="9" max="9" width="8.796875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.79646017699115" style="5" customWidth="1"/>
     <col min="10" max="29" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="20" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:29">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-    </row>
-    <row r="2" spans="1:29" s="13" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="14.25" spans="1:29">
       <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -891,22 +1516,22 @@
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
     </row>
-    <row r="3" spans="1:29" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
-      <c r="B3" s="23"/>
+    <row r="3" ht="14.25" spans="1:5">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:29" s="13" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="14.25" spans="1:29">
       <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -937,24 +1562,24 @@
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
     </row>
-    <row r="5" spans="1:29" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="23"/>
+    <row r="5" ht="14.25" spans="1:5">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:29" s="13" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="14.25" spans="1:29">
       <c r="A6" s="12"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>52</v>
+      <c r="E6" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -981,24 +1606,24 @@
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
     </row>
-    <row r="7" spans="1:29" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="23"/>
+    <row r="7" ht="14.25" spans="1:5">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="24">
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:29">
+      <c r="A8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="21">
         <v>0</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="C8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="23"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1024,18 +1649,18 @@
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
     </row>
-    <row r="9" spans="1:29" s="10" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
+    <row r="9" s="4" customFormat="1" ht="14.25" spans="1:29">
+      <c r="A9" s="24"/>
       <c r="B9" s="25">
         <v>1</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="C9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="5"/>
@@ -1063,24 +1688,24 @@
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
     </row>
-    <row r="10" spans="1:29" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="23"/>
+    <row r="10" ht="14.25" spans="1:5">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:29" s="13" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="29" t="s">
-        <v>51</v>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="14.25" spans="1:29">
+      <c r="A11" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="19" t="s">
+        <v>10</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1107,24 +1732,24 @@
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
     </row>
-    <row r="12" spans="1:29" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="23"/>
+    <row r="12" ht="14.25" spans="1:5">
+      <c r="A12" s="30"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="24">
+      <c r="D12" s="31"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:29">
+      <c r="A13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="21">
         <v>0</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="23"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1150,19 +1775,19 @@
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
     </row>
-    <row r="14" spans="1:29" s="10" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
+    <row r="14" s="4" customFormat="1" ht="14.25" spans="1:29">
+      <c r="A14" s="24"/>
       <c r="B14" s="25">
         <v>1</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>16</v>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1189,24 +1814,24 @@
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
     </row>
-    <row r="15" spans="1:29" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="23"/>
+    <row r="15" ht="14.25" spans="1:5">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="24">
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:29">
+      <c r="A16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="21">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="23"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1232,18 +1857,18 @@
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
     </row>
-    <row r="17" spans="1:29" s="10" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
+    <row r="17" s="4" customFormat="1" ht="14.25" spans="1:29">
+      <c r="A17" s="24"/>
       <c r="B17" s="25">
         <v>1</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="5"/>
@@ -1271,24 +1896,24 @@
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
     </row>
-    <row r="18" spans="1:29" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="23"/>
+    <row r="18" ht="14.25" spans="1:5">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="24">
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:29">
+      <c r="A19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="21">
         <v>0</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="23"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1314,15 +1939,15 @@
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
     </row>
-    <row r="20" spans="1:29" s="10" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
+    <row r="20" s="4" customFormat="1" ht="14.25" spans="1:29">
+      <c r="A20" s="24"/>
       <c r="B20" s="25">
         <v>1</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="5"/>
@@ -1350,26 +1975,26 @@
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
     </row>
-    <row r="21" spans="1:29" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="23"/>
+    <row r="21" ht="14.25" spans="1:5">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>24</v>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:29">
+      <c r="A22" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -1396,18 +2021,18 @@
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
     </row>
-    <row r="23" spans="1:29" s="10" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>25</v>
+    <row r="23" s="4" customFormat="1" ht="14.25" spans="1:29">
+      <c r="A23" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="B23" s="25"/>
-      <c r="C23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="C23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>6</v>
       </c>
       <c r="F23" s="5"/>
@@ -1435,26 +2060,26 @@
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
     </row>
-    <row r="24" spans="1:29" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="23"/>
+    <row r="24" ht="14.25" spans="1:5">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:29" s="13" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="14.25" spans="1:29">
       <c r="A25" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -1481,26 +2106,26 @@
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
     </row>
-    <row r="26" spans="1:29" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="23"/>
+    <row r="26" ht="14.25" spans="1:5">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>33</v>
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="1:29">
+      <c r="A27" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>37</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -1527,79 +2152,79 @@
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
     </row>
-    <row r="28" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="23"/>
+    <row r="28" s="5" customFormat="1" spans="1:5">
+      <c r="A28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="16"/>
       <c r="C28" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" s="5" customFormat="1" spans="1:5">
+      <c r="A29" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="16"/>
       <c r="C29" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" s="5" customFormat="1" spans="1:5">
+      <c r="A30" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="16"/>
       <c r="C30" s="5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" s="5" customFormat="1" spans="1:5">
+      <c r="A31" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="16"/>
       <c r="C31" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" s="10" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" s="4" customFormat="1" ht="14.25" spans="1:29">
+      <c r="A32" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="B32" s="25"/>
-      <c r="C32" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>49</v>
+      <c r="C32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>53</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -1626,42 +2251,67 @@
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="32"/>
+      <c r="E33" s="33"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:5">
+      <c r="A34" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36" t="s">
         <v>55</v>
       </c>
+      <c r="D34" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="38" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>